--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_SOS_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_SOS_2020.xlsx
@@ -1480,10 +1480,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-136.3738</v>
+        <v>-124.3497</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>-124.3688</v>
+        <v>-124.3457</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>124</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>34.611</v>
+        <v>43.2603</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43.3544</v>
+        <v>43.2632</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>124</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-112.234</v>
+        <v>-124.2604</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>-124.2543</v>
+        <v>-124.2644</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>124</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>52.1089</v>
+        <v>43.3219</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43.273</v>
+        <v>43.319</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>125</v>

--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_SOS_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_SOS_2020.xlsx
@@ -1480,10 +1480,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-124.3497</v>
+        <v>-124.3795</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>-124.3457</v>
+        <v>-124.3646</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>124</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43.2603</v>
+        <v>43.2397</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43.2632</v>
+        <v>43.2505</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>124</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-124.2604</v>
+        <v>-124.2333</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>-124.2644</v>
+        <v>-124.2482</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>124</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43.3219</v>
+        <v>43.3455</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43.319</v>
+        <v>43.3347</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>125</v>
